--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F5E40F-B9AF-B44F-B690-C4C6DDBAB834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25029E5D-4413-084E-9CEE-386EBCA1293F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="8320" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
+    <workbookView xWindow="9180" yWindow="6560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -469,6 +469,14 @@
         <v>844</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25029E5D-4413-084E-9CEE-386EBCA1293F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{94B4AEFC-E879-7845-8943-2714DC6D268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2547F0CB-9337-FE4A-81B0-BB8222D4BE47}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="6560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
+    <workbookView xWindow="5360" yWindow="3560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -460,6 +460,9 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -475,6 +478,31 @@
       </c>
       <c r="B4" s="1">
         <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{94B4AEFC-E879-7845-8943-2714DC6D268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2547F0CB-9337-FE4A-81B0-BB8222D4BE47}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{94B4AEFC-E879-7845-8943-2714DC6D268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9FE3A735-1B50-AD4F-8FDB-1DD469ED90E4}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
@@ -421,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -496,13 +496,29 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>102</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>103</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>105</v>
+      </c>
+      <c r="B8" s="1">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{94B4AEFC-E879-7845-8943-2714DC6D268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9FE3A735-1B50-AD4F-8FDB-1DD469ED90E4}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{94B4AEFC-E879-7845-8943-2714DC6D268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB02996E-2470-B149-8F94-F1CACB91EF13}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="3560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
+    <workbookView xWindow="2140" yWindow="2060" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -463,6 +463,9 @@
       <c r="B2" s="1">
         <v>15</v>
       </c>
+      <c r="C2" s="1">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -515,10 +518,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>105</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{94B4AEFC-E879-7845-8943-2714DC6D268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB02996E-2470-B149-8F94-F1CACB91EF13}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5683ED9D-E90F-5B4D-A3AE-85765DE55BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2060" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
+    <workbookView xWindow="3260" yWindow="1920" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -464,82 +476,124 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
         <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>71</v>
-      </c>
-      <c r="E3" s="1">
-        <v>844</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>240</v>
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
-        <v>145</v>
-      </c>
-      <c r="D5" s="1">
-        <v>173</v>
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>95</v>
-      </c>
-      <c r="B6" s="1">
-        <v>96</v>
+        <v>71</v>
+      </c>
+      <c r="E6" s="1">
+        <v>844</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
-        <v>103</v>
-      </c>
-      <c r="C7" s="1">
-        <v>107</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1">
-        <v>111</v>
+        <v>145</v>
+      </c>
+      <c r="D8" s="1">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>104</v>
+      </c>
+      <c r="B11" s="1">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>105</v>
+      </c>
+      <c r="B12" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>108</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B13" s="1">
         <v>109</v>
       </c>
     </row>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5683ED9D-E90F-5B4D-A3AE-85765DE55BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F118F00-5BE3-7F42-A345-9FCBED420A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="1920" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
+    <workbookView xWindow="3260" yWindow="6560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -597,6 +597,22 @@
         <v>109</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>215</v>
+      </c>
+      <c r="B14" s="1">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>261</v>
+      </c>
+      <c r="B15" s="1">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F118F00-5BE3-7F42-A345-9FCBED420A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5F118F00-5BE3-7F42-A345-9FCBED420A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF5C5DCC-65E6-1F44-AB0C-89E63E7D9110}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="6560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
+    <workbookView xWindow="5920" yWindow="3560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -607,9 +607,17 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
+        <v>252</v>
+      </c>
+      <c r="B15" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>261</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>323</v>
       </c>
     </row>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5F118F00-5BE3-7F42-A345-9FCBED420A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF5C5DCC-65E6-1F44-AB0C-89E63E7D9110}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D298A0-DBE1-1A42-B3DB-CB2E83FA484F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="3560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
+    <workbookView xWindow="5360" yWindow="3560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>Two Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地找缺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,101 +527,115 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>71</v>
-      </c>
-      <c r="E6" s="1">
-        <v>844</v>
+        <v>41</v>
+      </c>
+      <c r="B6" s="1">
+        <v>268</v>
+      </c>
+      <c r="C6" s="1">
+        <v>448</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>74</v>
-      </c>
-      <c r="B7" s="1">
-        <v>240</v>
+        <v>71</v>
+      </c>
+      <c r="E7" s="1">
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
-        <v>144</v>
-      </c>
-      <c r="C8" s="1">
-        <v>145</v>
-      </c>
-      <c r="D8" s="1">
-        <v>173</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1">
-        <v>96</v>
+        <v>144</v>
+      </c>
+      <c r="C9" s="1">
+        <v>145</v>
+      </c>
+      <c r="D9" s="1">
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1">
-        <v>103</v>
-      </c>
-      <c r="C10" s="1">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="C12" s="1">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1">
-        <v>973</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B15" s="1">
-        <v>253</v>
+        <v>973</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
+        <v>252</v>
+      </c>
+      <c r="B16" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>261</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>323</v>
       </c>
     </row>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D298A0-DBE1-1A42-B3DB-CB2E83FA484F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F59FEA-B4C2-484B-8D63-074F3358BA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="3560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
+    <workbookView xWindow="10160" yWindow="6560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>原地找缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合回溯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -527,115 +531,132 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
-        <v>448</v>
+        <v>77</v>
+      </c>
+      <c r="D6" s="1">
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>71</v>
-      </c>
-      <c r="E7" s="1">
-        <v>844</v>
+        <v>41</v>
+      </c>
+      <c r="B7" s="1">
+        <v>268</v>
+      </c>
+      <c r="C7" s="1">
+        <v>448</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>74</v>
-      </c>
-      <c r="B8" s="1">
-        <v>240</v>
+        <v>71</v>
+      </c>
+      <c r="E8" s="1">
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
-        <v>144</v>
-      </c>
-      <c r="C9" s="1">
-        <v>145</v>
-      </c>
-      <c r="D9" s="1">
-        <v>173</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1">
-        <v>96</v>
+        <v>144</v>
+      </c>
+      <c r="C10" s="1">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1">
-        <v>103</v>
-      </c>
-      <c r="C11" s="1">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="1">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1">
-        <v>973</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B16" s="1">
-        <v>253</v>
+        <v>973</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
+        <v>252</v>
+      </c>
+      <c r="B17" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
         <v>261</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>323</v>
       </c>
     </row>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzichao/OneDrive/3_CS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F59FEA-B4C2-484B-8D63-074F3358BA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D8932C-42FF-7946-A899-62AB6E488851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="6560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
+    <workbookView xWindow="5360" yWindow="3560" windowWidth="28240" windowHeight="17440" xr2:uid="{04FCEE11-82E8-0D4C-AB9B-A35CFD9E7D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,22 @@
   </si>
   <si>
     <t>组合回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E6D1D-38FC-7A44-ADB4-E08051C683BA}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -506,157 +522,212 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
-        <v>92</v>
-      </c>
-      <c r="C5" s="1">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
-        <v>448</v>
+        <v>77</v>
+      </c>
+      <c r="D7" s="1">
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>71</v>
-      </c>
-      <c r="E8" s="1">
-        <v>844</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="1">
+        <v>268</v>
+      </c>
+      <c r="C8" s="1">
+        <v>448</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
-        <v>240</v>
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1">
-        <v>144</v>
-      </c>
-      <c r="C10" s="1">
-        <v>145</v>
-      </c>
-      <c r="D10" s="1">
-        <v>173</v>
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="1">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>102</v>
-      </c>
-      <c r="B12" s="1">
-        <v>103</v>
-      </c>
-      <c r="C12" s="1">
-        <v>107</v>
+        <v>71</v>
+      </c>
+      <c r="E12" s="1">
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1">
-        <v>110</v>
-      </c>
-      <c r="C13" s="1">
-        <v>111</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1">
-        <v>106</v>
+        <v>144</v>
+      </c>
+      <c r="C14" s="1">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
+        <v>102</v>
+      </c>
+      <c r="B16" s="1">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>105</v>
+      </c>
+      <c r="B18" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>108</v>
+      </c>
+      <c r="B19" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>133</v>
+      </c>
+      <c r="B20" s="1">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
         <v>215</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B21" s="1">
         <v>973</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>252</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B22" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
         <v>261</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B23" s="1">
         <v>323</v>
       </c>
     </row>
